--- a/scouting_data.xlsx
+++ b/scouting_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,67 +446,67 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>CenterPickUp</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LSZ</t>
+          <t>LeaveCommunity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>Speaker Scored Auto</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SMA</t>
+          <t>Speaker Missed Auto</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ASA</t>
+          <t>Amp Scored Auto</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Amp Missed Auto</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>Speaker Scored Tele</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SMT</t>
+          <t>Speaker Missed Tele</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>Amp Scored Tele</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>Amp Missed Tele</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>AlifiedST</t>
+          <t>Amplified Scored Tele</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>Trap Scored Tele</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>Trap Missed Tele</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>PickUp</t>
+          <t>Pick Up</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -552,6 +552,11 @@
       <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Drivetrain</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
         </is>
       </c>
     </row>
@@ -563,99 +568,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>memo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>mete</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>(None,)</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>harmonized2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>tank-drive</t>
-        </is>
-      </c>
+          <t>swerve</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scouting_data.xlsx
+++ b/scouting_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,81 +559,11 @@
           <t>Notes</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6429</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>mete</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>swerve</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
